--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/81_Zonguldak_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/81_Zonguldak_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66408A73-7B31-436B-979F-786A7194539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5840310-690C-48EA-9BA7-ACBA0677414A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{4224C5DC-A585-4BC5-A1C5-66E219EAE7FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{04C48BEA-862F-46CF-83B6-B91129C136CB}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="151" r:id="rId1"/>
@@ -859,14 +859,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1AD714DF-4FF0-45CF-BDDE-6C2F74B92521}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{78EAC618-7E58-48C7-8340-223C5EC94231}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{01553FAE-2306-437D-BACB-6F558A54CBE1}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B17D3E9C-BC44-47A4-A13E-35D599CABD86}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AA28E257-5A97-44A1-85D8-146AE728A267}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AF9DA8FB-DD1D-4537-BACA-25CC7FBFA09E}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FC57A5B6-9973-402A-8537-51A65BD8DC2D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7DA52276-1069-4C6F-8332-C75256FC0A97}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D74FAD2F-783A-4187-A77B-2BE51C15FCDC}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5D52D754-F23A-45FB-9614-0F8BB982487A}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{1074AEE7-9D2A-4C11-B809-5540A0AA26EE}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{980DB098-F8FF-44BA-8954-BBB132CE2673}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E9ECDFE2-F15F-464F-B1EA-22BBA1C69EBA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{39A99EE0-A309-45D2-A73E-DADC4175E696}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{049B9B94-639F-4C0D-86C1-50E20E7C704B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E8471279-A67F-4269-B50A-7D672E7D046B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1A36BE-C94B-426A-829A-29F5D2B612ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6ACB04-8B07-4D07-827B-2B642CDE536D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2513,7 +2513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7E3CF9-302A-40BB-BFB7-E146F3C6B1FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71778E4C-96BA-4B11-8242-D3BC92485C6A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3794,7 +3794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF345088-C96C-431B-BBD9-B3450B8103CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3931CB16-83D9-4D9C-AA43-0A5F7C53E39A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5073,7 +5073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4185B7-5634-4EF9-B997-02085CF7A69D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC6934D-9321-49A1-9AA5-6333E344F6C3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6348,7 +6348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533D51D-0928-47D0-B18E-B38CCCB93A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675C7882-1E49-4E91-83EB-5295CB70492F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7617,7 +7617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992DE067-7ED5-4EB4-BF96-8B5E1655326E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB43C25D-5E2A-489A-A8A0-2E33AD9EDEB8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
